--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06414603949373034</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.572722802414136</v>
+        <v>-1.584597989674789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.118269549886012</v>
+        <v>0.1143061697385768</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09650535921546689</v>
+        <v>-0.0956081683163255</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05429286381032684</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586415194750331</v>
+        <v>-1.598496578515874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143485336209249</v>
+        <v>0.137664613498679</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09425923392937081</v>
+        <v>-0.09363120029997184</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05788892564431033</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.731357958525744</v>
+        <v>-1.741661487693779</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1164153553611197</v>
+        <v>0.1116240411558805</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08971976278353963</v>
+        <v>-0.0894317172843416</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07597660577056006</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.895272374770195</v>
+        <v>-1.90100259138129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1978614007737025</v>
+        <v>0.1889209721647146</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1060533592052769</v>
+        <v>-0.1048854370172718</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1045079259565371</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.870963223460827</v>
+        <v>-1.877164858798752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2758556222532729</v>
+        <v>0.2636916024838612</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1640465197104794</v>
+        <v>-0.1607709859190527</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.137848407060277</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.857532118298768</v>
+        <v>-1.858581202043115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4021076959728011</v>
+        <v>0.3865815713602911</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.170817949970315</v>
+        <v>-0.1673314976166339</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1705179373240895</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.698145368056739</v>
+        <v>-1.695246024835303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4769696194009831</v>
+        <v>0.4596758713152524</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1781528790755762</v>
+        <v>-0.1740021906527063</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1943449195411983</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.410050287256392</v>
+        <v>-1.402836557623471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5891216298318998</v>
+        <v>0.5665895461104804</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1861961167854227</v>
+        <v>-0.1807232523006602</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1996640780650027</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.01361704435604</v>
+        <v>-1.00167181324449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5726935922628844</v>
+        <v>0.5514207238385056</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1638324531099825</v>
+        <v>-0.1577252589193358</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1761223930750939</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4219763110606592</v>
+        <v>-0.4148570225750162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5519385761294135</v>
+        <v>0.5276325728582884</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1509790129654411</v>
+        <v>-0.1435354765408101</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1163723668381646</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2892284887078436</v>
+        <v>0.2904373353930025</v>
       </c>
       <c r="F12" t="n">
-        <v>0.49065256762245</v>
+        <v>0.4608752738856836</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06686028308488974</v>
+        <v>-0.06021634837387953</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01789594660452786</v>
       </c>
       <c r="E13" t="n">
-        <v>1.022057163164775</v>
+        <v>1.016820401548208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2802770419650065</v>
+        <v>0.2460374040193527</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03017484770505506</v>
+        <v>0.03705960734162427</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1197355033670113</v>
       </c>
       <c r="E14" t="n">
-        <v>1.786295389187262</v>
+        <v>1.773533242151756</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0009088819023909216</v>
+        <v>-0.03706724915691032</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1649785673106099</v>
+        <v>0.1710668732718009</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2875286031038033</v>
       </c>
       <c r="E15" t="n">
-        <v>2.503176101907175</v>
+        <v>2.488024593845535</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2924723138365238</v>
+        <v>-0.3307477368091927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2851989997573138</v>
+        <v>0.2905207584064314</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4746618120398222</v>
       </c>
       <c r="E16" t="n">
-        <v>3.190883944232901</v>
+        <v>3.16880990007578</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6109687869552328</v>
+        <v>-0.6500422376224011</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4169806026499713</v>
+        <v>0.4222362524959943</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6720588197015794</v>
       </c>
       <c r="E17" t="n">
-        <v>4.022271399989196</v>
+        <v>3.985137140879471</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.032880677372079</v>
+        <v>-1.067878205524639</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5843743881620568</v>
+        <v>0.5878435263054036</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8717750343975823</v>
       </c>
       <c r="E18" t="n">
-        <v>4.627785537819722</v>
+        <v>4.582494711623416</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.386669807228592</v>
+        <v>-1.420583623216137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7109239514955108</v>
+        <v>0.7157845225420874</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.066431137797465</v>
       </c>
       <c r="E19" t="n">
-        <v>5.269489523287193</v>
+        <v>5.211778112204703</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.798142802832972</v>
+        <v>-1.829923822911154</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9071096947744286</v>
+        <v>0.908666399685395</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.245835674903895</v>
       </c>
       <c r="E20" t="n">
-        <v>5.71621031608442</v>
+        <v>5.651299341541101</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.186502114650612</v>
+        <v>-2.216048027576547</v>
       </c>
       <c r="G20" t="n">
-        <v>1.088452437739481</v>
+        <v>1.087807089899748</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.402717324447014</v>
       </c>
       <c r="E21" t="n">
-        <v>6.081285163040659</v>
+        <v>6.01129168075466</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.624453259913512</v>
+        <v>-2.647521297145734</v>
       </c>
       <c r="G21" t="n">
-        <v>1.287776775146272</v>
+        <v>1.283172769216468</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.532443529486222</v>
       </c>
       <c r="E22" t="n">
-        <v>6.364718786213274</v>
+        <v>6.289545206999074</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.989120435917334</v>
+        <v>-3.006100167188365</v>
       </c>
       <c r="G22" t="n">
-        <v>1.427264775656818</v>
+        <v>1.419939290666284</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.632335840226174</v>
       </c>
       <c r="E23" t="n">
-        <v>6.627010184548578</v>
+        <v>6.545313870095709</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.281000245694848</v>
+        <v>-3.290054790690131</v>
       </c>
       <c r="G23" t="n">
-        <v>1.521276215714744</v>
+        <v>1.514218313974832</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.703696408827753</v>
       </c>
       <c r="E24" t="n">
-        <v>6.681024224715133</v>
+        <v>6.599189396579588</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.52426568790143</v>
+        <v>-3.527511315329552</v>
       </c>
       <c r="G24" t="n">
-        <v>1.638436754989639</v>
+        <v>1.628655800169877</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.746390010092144</v>
       </c>
       <c r="E25" t="n">
-        <v>6.714974243142467</v>
+        <v>6.632108432482471</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.681357518264603</v>
+        <v>-3.681859630364298</v>
       </c>
       <c r="G25" t="n">
-        <v>1.692332743722096</v>
+        <v>1.681679782309133</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.764290459791293</v>
       </c>
       <c r="E26" t="n">
-        <v>6.65100925409105</v>
+        <v>6.57176998348653</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.867652125385267</v>
+        <v>-3.860684729744829</v>
       </c>
       <c r="G26" t="n">
-        <v>1.732948733128139</v>
+        <v>1.722121055592712</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.761044760421678</v>
       </c>
       <c r="E27" t="n">
-        <v>6.515882860565628</v>
+        <v>6.4414978649312</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.016714884210685</v>
+        <v>-4.000280550565185</v>
       </c>
       <c r="G27" t="n">
-        <v>1.757590002472101</v>
+        <v>1.745732916431343</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.740708732289933</v>
       </c>
       <c r="E28" t="n">
-        <v>6.296176549557114</v>
+        <v>6.224790060348764</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.023159705502851</v>
+        <v>-4.004241569683938</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74808922305593</v>
+        <v>1.735645027882927</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.708502392607489</v>
       </c>
       <c r="E29" t="n">
-        <v>6.156694845123053</v>
+        <v>6.086394429108401</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.96867818165727</v>
+        <v>-3.947742153324849</v>
       </c>
       <c r="G29" t="n">
-        <v>1.701706027589442</v>
+        <v>1.689085542274853</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.665917789939725</v>
       </c>
       <c r="E30" t="n">
-        <v>5.898628114109321</v>
+        <v>5.834186197264149</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.889620710261261</v>
+        <v>-3.866983954268275</v>
       </c>
       <c r="G30" t="n">
-        <v>1.67537111367096</v>
+        <v>1.661798346787984</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.618111058570198</v>
       </c>
       <c r="E31" t="n">
-        <v>5.668212176999477</v>
+        <v>5.607954002978722</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.757942205621049</v>
+        <v>-3.736293146626679</v>
       </c>
       <c r="G31" t="n">
-        <v>1.579245765933127</v>
+        <v>1.566310476794278</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.567301422465232</v>
       </c>
       <c r="E32" t="n">
-        <v>5.412397867348325</v>
+        <v>5.357127759922973</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.631392642287595</v>
+        <v>-3.610047368983636</v>
       </c>
       <c r="G32" t="n">
-        <v>1.468628424145479</v>
+        <v>1.457899909814693</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.515301812171513</v>
       </c>
       <c r="E33" t="n">
-        <v>5.050622164470332</v>
+        <v>5.003396868773948</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.411964932663551</v>
+        <v>-3.396068913557535</v>
       </c>
       <c r="G33" t="n">
-        <v>1.343303447688396</v>
+        <v>1.33492179586747</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.463948060501802</v>
       </c>
       <c r="E34" t="n">
-        <v>4.704443417065308</v>
+        <v>4.662409236430974</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.289748643971038</v>
+        <v>-3.275365257240592</v>
       </c>
       <c r="G34" t="n">
-        <v>1.240224083472657</v>
+        <v>1.233723384501685</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.411440310019719</v>
       </c>
       <c r="E35" t="n">
-        <v>4.323485143156024</v>
+        <v>4.288006752161906</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.126367033199148</v>
+        <v>-3.115944665587455</v>
       </c>
       <c r="G35" t="n">
-        <v>1.112364936230281</v>
+        <v>1.107756208243112</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.359133235731848</v>
       </c>
       <c r="E36" t="n">
-        <v>3.990189742258846</v>
+        <v>3.959326375328382</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.019720941654541</v>
+        <v>-3.010604222903967</v>
       </c>
       <c r="G36" t="n">
-        <v>1.002115914917017</v>
+        <v>0.9981304985018834</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.305870617470085</v>
       </c>
       <c r="E37" t="n">
-        <v>3.646650624920243</v>
+        <v>3.618957332500079</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.872813015006184</v>
+        <v>-2.865512714321591</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9178508012581844</v>
+        <v>0.9150222888972072</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.250650720637597</v>
       </c>
       <c r="E38" t="n">
-        <v>3.277872110971584</v>
+        <v>3.254093404106094</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.733795646212907</v>
+        <v>-2.728387316512118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8287440047822312</v>
+        <v>0.8272738709229364</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.193275054797246</v>
       </c>
       <c r="E39" t="n">
-        <v>2.933353953739532</v>
+        <v>2.912899575258229</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.56986155472944</v>
+        <v>-2.567699639466334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7471893520502787</v>
+        <v>0.7459143965620251</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.131768613031954</v>
       </c>
       <c r="E40" t="n">
-        <v>2.694081011034129</v>
+        <v>2.673960324606542</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.424445011198515</v>
+        <v>-2.424504823925125</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7095655729938284</v>
+        <v>0.7074658314860132</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.067081777393774</v>
       </c>
       <c r="E41" t="n">
-        <v>2.485463664735179</v>
+        <v>2.465503528257964</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.30146296220349</v>
+        <v>-2.302979529626863</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6142398269696161</v>
+        <v>0.6137613251567406</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9977708539560846</v>
       </c>
       <c r="E42" t="n">
-        <v>2.235564518941875</v>
+        <v>2.215676787344241</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.241595931934378</v>
+        <v>-2.241331496722</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5619304495114303</v>
+        <v>0.5599519074759554</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9239506995801955</v>
       </c>
       <c r="E43" t="n">
-        <v>1.999669421270783</v>
+        <v>1.980244451294811</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.139983553539691</v>
+        <v>-2.140891762572682</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4954155494835059</v>
+        <v>0.494233461123409</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8466669529729217</v>
       </c>
       <c r="E44" t="n">
-        <v>1.763476833985766</v>
+        <v>1.744744432423166</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.091867363020651</v>
+        <v>-2.090918229490506</v>
       </c>
       <c r="G44" t="n">
-        <v>0.454569753285753</v>
+        <v>0.4525392686192751</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7657902865907524</v>
       </c>
       <c r="E45" t="n">
-        <v>1.545602681234446</v>
+        <v>1.527427482440787</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.041068256909353</v>
+        <v>-2.038055584311183</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3644130860558922</v>
+        <v>0.3639802307975345</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6849422200828922</v>
       </c>
       <c r="E46" t="n">
-        <v>1.347211737166586</v>
+        <v>1.328702846319211</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.969270948710343</v>
+        <v>-1.966363735393301</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3147716710083111</v>
+        <v>0.3135958787246995</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6054060122594696</v>
       </c>
       <c r="E47" t="n">
-        <v>1.146585685946479</v>
+        <v>1.130477174259088</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.879894994964648</v>
+        <v>-1.878125010462745</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3028705124321566</v>
+        <v>0.3004260607367766</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5299753221327111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9859318503118031</v>
+        <v>0.9697131572859208</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.824943626411359</v>
+        <v>-1.823113829182847</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2317043859007886</v>
+        <v>0.2299871310394496</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4607848210085491</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8565459045217653</v>
+        <v>0.8398439876256436</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.781678562824167</v>
+        <v>-1.780046304995378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1951336256364885</v>
+        <v>0.1932636909203832</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3979980510396676</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7681788970328234</v>
+        <v>0.7503200760825457</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.701891533565435</v>
+        <v>-1.700960501255185</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1627371640818777</v>
+        <v>0.1607161235301276</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3429847439173869</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6611188384593144</v>
+        <v>0.6424100471835344</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.617580773352085</v>
+        <v>-1.618295378033155</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1334619824448062</v>
+        <v>0.1304477358275154</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2945998147476965</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4908949665671303</v>
+        <v>0.4754601350636558</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.562750604271136</v>
+        <v>-1.563817789235378</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07839177544785902</v>
+        <v>0.07711996799784808</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.253010804469274</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4030300711778833</v>
+        <v>0.388046983162222</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.5562451832428</v>
+        <v>-1.556491517235284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01409939041921114</v>
+        <v>0.014009671329297</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2180363229621082</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3075075727635084</v>
+        <v>0.2929022493369594</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.501682597412473</v>
+        <v>-1.503839003608654</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02137427851754246</v>
+        <v>-0.02085170416927063</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1884180891613118</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1997958702737811</v>
+        <v>0.186441892048666</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.493385942624097</v>
+        <v>-1.495284996693946</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03241130059610289</v>
+        <v>-0.03261592308187198</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1640576873957689</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07279456345251378</v>
+        <v>0.06234779854444112</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.496708696989162</v>
+        <v>-1.498730524550473</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08771918448036646</v>
+        <v>-0.08711161309954439</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1432911162392901</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01295035646066164</v>
+        <v>0.002472111170162956</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.50328888392576</v>
+        <v>-1.504598467834682</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0871210572142722</v>
+        <v>-0.08764835361990793</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1256027948571223</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1101096064808687</v>
+        <v>-0.1189713341337916</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.526646540676301</v>
+        <v>-1.526972362634411</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1548605441185686</v>
+        <v>-0.1531543073910787</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1096232582536573</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1969041688676313</v>
+        <v>-0.2048450953345932</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.538606724969505</v>
+        <v>-1.538471359325073</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2036535628597686</v>
+        <v>-0.2013240145602436</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09456079662327123</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3161754677841909</v>
+        <v>-0.3222307193438346</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522217250868961</v>
+        <v>-1.523170319446909</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2426278503222949</v>
+        <v>-0.2392027847143446</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08013852327441737</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4178681211540644</v>
+        <v>-0.4230702543499632</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.578421538642806</v>
+        <v>-1.577622723938745</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2528023099223826</v>
+        <v>-0.2500887009572602</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06591397731311402</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5260882318199719</v>
+        <v>-0.5289088740853427</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.601683180226948</v>
+        <v>-1.601797296613242</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2751628255595802</v>
+        <v>-0.2721218206172272</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.05205703330019106</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6427938795688114</v>
+        <v>-0.6428363780850865</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.660483812541378</v>
+        <v>-1.660343724839582</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3188434301947956</v>
+        <v>-0.3151318931067685</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03822798322902696</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7476125349135881</v>
+        <v>-0.745319189053853</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.751987840139072</v>
+        <v>-1.748377040274808</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3855015659627584</v>
+        <v>-0.3799578706175373</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.02413561883932372</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8491485733808922</v>
+        <v>-0.8458470682739641</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.843195952141961</v>
+        <v>-1.836866034245651</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4135348465131236</v>
+        <v>-0.4081406829844262</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.009802936179567916</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9095452610843209</v>
+        <v>-0.9068096158515003</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.881044815932758</v>
+        <v>-1.874927390617823</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4609427284275791</v>
+        <v>-0.454660818114468</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.004681103320755835</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.014466227671982</v>
+        <v>-1.0095017713634</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.900181740409532</v>
+        <v>-1.894558557098685</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.499868221297345</v>
+        <v>-0.4927064342954269</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01967295504174039</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.05291007069063</v>
+        <v>-1.047551322592162</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.916805743359149</v>
+        <v>-1.911959338484664</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5208341559930703</v>
+        <v>-0.513640888608726</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03547629321203282</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.074303351577788</v>
+        <v>-1.069042192664841</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.008033530601055</v>
+        <v>-2.001645373997256</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5597140023083185</v>
+        <v>-0.5513858671375166</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05190345498331211</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.072017088804099</v>
+        <v>-1.066488346640531</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.035596179434151</v>
+        <v>-2.028601238459091</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5920805574996245</v>
+        <v>-0.5829040260224415</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06846008178357334</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.048951412600559</v>
+        <v>-1.045544448212504</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.074311540751224</v>
+        <v>-2.066544543397165</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5816416626871583</v>
+        <v>-0.5734457451225456</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.08400241258747984</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.056682207514827</v>
+        <v>-1.051555627236751</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.124111931730056</v>
+        <v>-2.115895551916866</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5875961770230389</v>
+        <v>-0.5794695162997634</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09775645687508085</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9227748917988532</v>
+        <v>-0.9216376629837134</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.067577886950299</v>
+        <v>-2.063133643961307</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5955465476047287</v>
+        <v>-0.5876638598452548</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1091322581488865</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7753451778117849</v>
+        <v>-0.778298037683345</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.069106259517082</v>
+        <v>-2.066834162915484</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5967664124237367</v>
+        <v>-0.5884618875397543</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1180689549544267</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6591416421626404</v>
+        <v>-0.6638920318707259</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.036757805545671</v>
+        <v>-2.036334394402041</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5864880675616432</v>
+        <v>-0.579069715442953</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1244507878502418</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.489748852366503</v>
+        <v>-0.4980171748106955</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.993105533254639</v>
+        <v>-1.99535716760766</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5664775624725475</v>
+        <v>-0.5591552255202568</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1282596321739264</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3230035627323933</v>
+        <v>-0.3348874070982135</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.957215536260301</v>
+        <v>-1.959986596923351</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4971640564469504</v>
+        <v>-0.4922704309988266</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1292312266645181</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1188611527953006</v>
+        <v>-0.1344675523829969</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.968616156755882</v>
+        <v>-1.970750526684366</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4448121804724896</v>
+        <v>-0.4420749612205477</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1272149930378785</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1115815426396053</v>
+        <v>0.09217388687396785</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.904193128140166</v>
+        <v>-1.908952174953419</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4175076707752866</v>
+        <v>-0.4152363611832497</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1220878939371635</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3002875470541022</v>
+        <v>0.2787313551878893</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.806992725342485</v>
+        <v>-1.814297748084442</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.362586995594863</v>
+        <v>-0.3611672303474497</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1137481126450182</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5424488148470917</v>
+        <v>0.5184119688457089</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.773034049809983</v>
+        <v>-1.780053388081424</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3027097342014635</v>
+        <v>-0.3031898100334602</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1020372593795002</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8064999665600099</v>
+        <v>0.7782793777342099</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.720782911059286</v>
+        <v>-1.728664024799638</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2550311209981443</v>
+        <v>-0.2564619043794067</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.0867569406904363</v>
       </c>
       <c r="E83" t="n">
-        <v>1.031754694971109</v>
+        <v>1.002660525532987</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.676142941769637</v>
+        <v>-1.683516434343371</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2070125196646243</v>
+        <v>-0.2089029166293064</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06798008401357472</v>
       </c>
       <c r="E84" t="n">
-        <v>1.252081169513415</v>
+        <v>1.222138603768912</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.630831653324755</v>
+        <v>-1.636324980058094</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1578716426976168</v>
+        <v>-0.1606403423319847</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04508585066453193</v>
       </c>
       <c r="E85" t="n">
-        <v>1.51887583655476</v>
+        <v>1.48470073339308</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.571761863740582</v>
+        <v>-1.574613986388379</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1086489167363017</v>
+        <v>-0.1117686226347197</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01851670769869318</v>
       </c>
       <c r="E86" t="n">
-        <v>1.704885546214469</v>
+        <v>1.672086135764805</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.497531121980042</v>
+        <v>-1.49946559148012</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06570023099249113</v>
+        <v>-0.06947945090273408</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01086589089597237</v>
       </c>
       <c r="E87" t="n">
-        <v>1.87414926644266</v>
+        <v>1.842816841814048</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.414807760050524</v>
+        <v>-1.415001364402444</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01147212422543984</v>
+        <v>-0.01604937183018224</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04037761749519488</v>
       </c>
       <c r="E88" t="n">
-        <v>2.004775539300283</v>
+        <v>1.975036022022427</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.313521990623506</v>
+        <v>-1.311508820167363</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02885581968140508</v>
+        <v>0.02355452328086437</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06731494278312922</v>
       </c>
       <c r="E89" t="n">
-        <v>2.08721951283577</v>
+        <v>2.059837876201623</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.164137344887783</v>
+        <v>-1.16084213585734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06589091558648896</v>
+        <v>0.05992538311675936</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08824331641244433</v>
       </c>
       <c r="E90" t="n">
-        <v>2.154030328458499</v>
+        <v>2.128452517737363</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.028183017304557</v>
+        <v>-1.023311428124131</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08582586775776217</v>
+        <v>0.07977061619811843</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09998374384248494</v>
       </c>
       <c r="E91" t="n">
-        <v>2.185263589882469</v>
+        <v>2.162301798940934</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8480766663592865</v>
+        <v>-0.8426785677827857</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06193855357290294</v>
+        <v>0.05725269864879079</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1008639402386365</v>
       </c>
       <c r="E92" t="n">
-        <v>2.245997117677855</v>
+        <v>2.22269533860612</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6452603675318895</v>
+        <v>-0.6400062917049879</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08956888522821521</v>
+        <v>0.08314531319418711</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0899693368847376</v>
       </c>
       <c r="E93" t="n">
-        <v>2.232251208691537</v>
+        <v>2.210251143433117</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5027927488247217</v>
+        <v>-0.4965549110470071</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07622435111782798</v>
+        <v>0.07047288524859527</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06844012334077579</v>
       </c>
       <c r="E94" t="n">
-        <v>2.214532475443055</v>
+        <v>2.192817307645591</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3005942525024354</v>
+        <v>-0.2956801648057346</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04908983548572542</v>
+        <v>0.0432990191384602</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03861431782301414</v>
       </c>
       <c r="E95" t="n">
-        <v>2.10549230081495</v>
+        <v>2.086673328200679</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.112654795400012</v>
+        <v>-0.1107754165691789</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02321453515066342</v>
+        <v>0.01870969242550085</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.004414942868361967</v>
       </c>
       <c r="E96" t="n">
-        <v>2.016270600943141</v>
+        <v>1.998137900665758</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01430378462465978</v>
+        <v>-0.0113965713076174</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02588069526182633</v>
+        <v>-0.02949464316433271</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02975732818583056</v>
       </c>
       <c r="E97" t="n">
-        <v>1.800302585347717</v>
+        <v>1.787159525684856</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06269093471288467</v>
+        <v>0.06454827727601949</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05500162302501036</v>
+        <v>-0.05799698141284557</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06051794837618574</v>
       </c>
       <c r="E98" t="n">
-        <v>1.613784467511828</v>
+        <v>1.604341926803145</v>
       </c>
       <c r="F98" t="n">
-        <v>0.102246035231171</v>
+        <v>0.1047203932898556</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07241499656395987</v>
+        <v>-0.07521989863811769</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08585681825973147</v>
       </c>
       <c r="E99" t="n">
-        <v>1.448983091492525</v>
+        <v>1.440573107327415</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1117546847429484</v>
+        <v>0.1139724776848611</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1051026516560113</v>
+        <v>-0.1069300878558413</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1062749958107688</v>
       </c>
       <c r="E100" t="n">
-        <v>1.259611276989718</v>
+        <v>1.254043971357677</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1277939395890024</v>
+        <v>0.13032024027869</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1006450295044877</v>
+        <v>-0.1028360641213383</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1216167344475445</v>
       </c>
       <c r="E101" t="n">
-        <v>1.115155672132347</v>
+        <v>1.110534351992208</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08997340814238949</v>
+        <v>0.09461991258846912</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1366680311145752</v>
+        <v>-0.1383490835361244</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1327698621633893</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9514828678230163</v>
+        <v>0.948775554934379</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08333891754610709</v>
+        <v>0.08788153673018087</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09108758539994993</v>
+        <v>-0.09538150956285821</v>
       </c>
     </row>
   </sheetData>
